--- a/MicroSent/results.xlsx
+++ b/MicroSent/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files (x86)\Eigene Dokumente\Visual Studio\Projekte\Microsent\MicroSent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34EBDC0F-FF20-483F-9F16-0D2B6C2B7DA7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BD8F0-E847-4259-B58D-10262DA6E7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1350" yWindow="3200" windowWidth="22020" windowHeight="13730" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="540" yWindow="1630" windowWidth="21390" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -207,6 +207,18 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -216,19 +228,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -522,7 +525,7 @@
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P15" sqref="P15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -539,132 +542,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6" t="s">
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
+      <c r="O1" s="17"/>
+      <c r="P1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
+      <c r="Q1" s="17"/>
+      <c r="R1" s="17"/>
+      <c r="S1" s="17"/>
+      <c r="T1" s="17"/>
+      <c r="U1" s="17"/>
+      <c r="V1" s="17"/>
+      <c r="W1" s="17"/>
+      <c r="X1" s="17"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8" t="s">
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9" t="s">
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="13" t="s">
+      <c r="N2" s="16"/>
+      <c r="O2" s="16"/>
+      <c r="P2" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="8" t="s">
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="9" t="s">
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="9"/>
-      <c r="X2" s="9"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="16"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="12" t="s">
+      <c r="M3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="14" t="s">
+      <c r="P3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="T3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="U3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="12" t="s">
+      <c r="X3" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -685,7 +688,7 @@
         <v>53.815260000000002</v>
       </c>
       <c r="F4" s="2">
-        <v>47.984969999999997</v>
+        <v>47.937159999999999</v>
       </c>
       <c r="G4" s="3">
         <v>61.946899999999999</v>
@@ -714,32 +717,32 @@
       <c r="O4" s="5">
         <v>56.410260000000001</v>
       </c>
-      <c r="P4" s="15">
-        <v>33.2258</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>56.66525</v>
-      </c>
-      <c r="R4" s="16">
-        <v>23.503599999999999</v>
+      <c r="P4" s="11">
+        <v>33.217820000000003</v>
+      </c>
+      <c r="Q4" s="12">
+        <v>56.792209999999997</v>
+      </c>
+      <c r="R4" s="12">
+        <v>23.473849999999999</v>
       </c>
       <c r="S4" s="4">
-        <v>62.71069</v>
+        <v>62.65014</v>
       </c>
       <c r="T4" s="4">
-        <v>54.118549999999999</v>
+        <v>53.9878</v>
       </c>
       <c r="U4" s="4">
-        <v>74.546000000000006</v>
+        <v>74.623500000000007</v>
       </c>
       <c r="V4" s="5">
-        <v>26.73359</v>
+        <v>26.793009999999999</v>
       </c>
       <c r="W4" s="5">
-        <v>23.201029999999999</v>
+        <v>23.26557</v>
       </c>
       <c r="X4" s="5">
-        <v>31.53509</v>
+        <v>31.581250000000001</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -758,8 +761,8 @@
       <c r="E5" s="1">
         <v>50.803220000000003</v>
       </c>
-      <c r="F5" s="1">
-        <v>46.147539999999999</v>
+      <c r="F5" s="6">
+        <v>46.065570000000001</v>
       </c>
       <c r="G5" s="3">
         <v>61.382109999999997</v>
@@ -788,32 +791,32 @@
       <c r="O5" s="5">
         <v>33.33334</v>
       </c>
-      <c r="P5" s="15">
-        <v>34.015749999999997</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>68.556920000000005</v>
-      </c>
-      <c r="R5" s="16">
-        <v>22.61938</v>
+      <c r="P5" s="11">
+        <v>33.985970000000002</v>
+      </c>
+      <c r="Q5" s="12">
+        <v>68.683880000000002</v>
+      </c>
+      <c r="R5" s="12">
+        <v>22.5793</v>
       </c>
       <c r="S5" s="4">
-        <v>61.959150000000001</v>
+        <v>61.862090000000002</v>
       </c>
       <c r="T5" s="4">
-        <v>53.203319999999998</v>
+        <v>53.028979999999997</v>
       </c>
       <c r="U5" s="4">
-        <v>74.164640000000006</v>
+        <v>74.226010000000002</v>
       </c>
       <c r="V5" s="5">
-        <v>12.672180000000001</v>
+        <v>12.71908</v>
       </c>
       <c r="W5" s="5">
-        <v>8.1639239999999997</v>
+        <v>8.1961919999999999</v>
       </c>
       <c r="X5" s="5">
-        <v>28.299779999999998</v>
+        <v>28.37989</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -832,8 +835,8 @@
       <c r="E6" s="2">
         <v>64.25703</v>
       </c>
-      <c r="F6" s="1">
-        <v>41.687159999999999</v>
+      <c r="F6" s="6">
+        <v>41.646180000000001</v>
       </c>
       <c r="G6" s="3">
         <v>66.129040000000003</v>
@@ -862,32 +865,32 @@
       <c r="O6" s="5">
         <v>56.666670000000003</v>
       </c>
-      <c r="P6" s="15">
-        <v>33.56223</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>49.64029</v>
-      </c>
-      <c r="R6" s="16">
-        <v>25.351199999999999</v>
+      <c r="P6" s="11">
+        <v>33.58081</v>
+      </c>
+      <c r="Q6" s="12">
+        <v>49.767240000000001</v>
+      </c>
+      <c r="R6" s="12">
+        <v>25.339369999999999</v>
       </c>
       <c r="S6" s="4">
-        <v>48.258859999999999</v>
+        <v>48.079740000000001</v>
       </c>
       <c r="T6" s="4">
-        <v>34.125079999999997</v>
+        <v>33.896270000000001</v>
       </c>
       <c r="U6" s="4">
-        <v>82.377690000000001</v>
+        <v>82.673400000000001</v>
       </c>
       <c r="V6" s="5">
-        <v>38.625140000000002</v>
+        <v>38.778790000000001</v>
       </c>
       <c r="W6" s="5">
-        <v>58.018709999999999</v>
+        <v>58.405940000000001</v>
       </c>
       <c r="X6" s="5">
-        <v>28.948640000000001</v>
+        <v>29.025010000000002</v>
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.35">
@@ -906,8 +909,8 @@
       <c r="E7" s="1">
         <v>51.807229999999997</v>
       </c>
-      <c r="F7" s="1">
-        <v>42.24044</v>
+      <c r="F7" s="6">
+        <v>42.15164</v>
       </c>
       <c r="G7" s="3">
         <v>60.084029999999998</v>
@@ -936,32 +939,32 @@
       <c r="O7" s="5">
         <v>57.894739999999999</v>
       </c>
-      <c r="P7" s="15">
-        <v>32.625480000000003</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>71.519260000000003</v>
-      </c>
-      <c r="R7" s="16">
-        <v>21.132930000000002</v>
+      <c r="P7" s="11">
+        <v>32.585889999999999</v>
+      </c>
+      <c r="Q7" s="12">
+        <v>71.646209999999996</v>
+      </c>
+      <c r="R7" s="12">
+        <v>21.08869</v>
       </c>
       <c r="S7" s="4">
-        <v>56.194569999999999</v>
+        <v>56.067239999999998</v>
       </c>
       <c r="T7" s="4">
-        <v>44.181739999999998</v>
+        <v>43.974719999999998</v>
       </c>
       <c r="U7" s="4">
-        <v>77.179299999999998</v>
+        <v>77.332819999999998</v>
       </c>
       <c r="V7" s="5">
-        <v>19.563279999999999</v>
+        <v>19.67943</v>
       </c>
       <c r="W7" s="5">
-        <v>14.16586</v>
+        <v>14.26267</v>
       </c>
       <c r="X7" s="5">
-        <v>31.60547</v>
+        <v>31.730080000000001</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">

--- a/MicroSent/results.xlsx
+++ b/MicroSent/results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files (x86)\Eigene Dokumente\Visual Studio\Projekte\Microsent\MicroSent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{429BD8F0-E847-4259-B58D-10262DA6E7E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83245048-3FA1-4CEE-91D6-B92DF0703F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="540" yWindow="1630" windowWidth="21390" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="3290" windowWidth="21390" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="20">
   <si>
     <t>extended lexicon</t>
   </si>
@@ -82,6 +82,9 @@
   </si>
   <si>
     <t>Neutral</t>
+  </si>
+  <si>
+    <t>Bis nächstes SZ</t>
   </si>
 </sst>
 </file>
@@ -111,7 +114,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +136,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFB3333"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF2F2F"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -178,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -193,9 +202,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -219,6 +225,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -234,6 +243,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -242,10 +254,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF2F2F"/>
+      <color rgb="FFA5FF8D"/>
       <color rgb="FFFB3333"/>
-      <color rgb="FFA5FF8D"/>
       <color rgb="FFFF7777"/>
-      <color rgb="FFFF2F2F"/>
     </mruColors>
   </colors>
   <extLst>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X15"/>
+  <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -598,76 +610,76 @@
       <c r="X2" s="16"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="L3" s="8" t="s">
+      <c r="L3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="O3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="Q3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="8" t="s">
+      <c r="S3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="8" t="s">
+      <c r="T3" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="U3" s="8" t="s">
+      <c r="U3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="9" t="s">
+      <c r="W3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="X3" s="8" t="s">
         <v>15</v>
       </c>
     </row>
@@ -684,29 +696,29 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="1">
-        <v>53.815260000000002</v>
+      <c r="E4" s="13">
+        <v>54.016069999999999</v>
       </c>
       <c r="F4" s="2">
-        <v>47.937159999999999</v>
+        <v>48.039619999999999</v>
       </c>
       <c r="G4" s="3">
-        <v>61.946899999999999</v>
+        <v>62.08426</v>
       </c>
       <c r="H4" s="3">
         <v>76.923079999999999</v>
       </c>
       <c r="I4" s="3">
-        <v>51.851849999999999</v>
+        <v>52.044609999999999</v>
       </c>
       <c r="J4" s="4">
-        <v>57.923499999999997</v>
+        <v>58.310630000000003</v>
       </c>
       <c r="K4" s="4">
-        <v>59.887</v>
+        <v>60.451979999999999</v>
       </c>
       <c r="L4" s="4">
-        <v>56.08466</v>
+        <v>56.31579</v>
       </c>
       <c r="M4" s="5">
         <v>24.719100000000001</v>
@@ -717,23 +729,23 @@
       <c r="O4" s="5">
         <v>56.410260000000001</v>
       </c>
-      <c r="P4" s="11">
-        <v>33.217820000000003</v>
-      </c>
-      <c r="Q4" s="12">
+      <c r="P4" s="10">
+        <v>33.267229999999998</v>
+      </c>
+      <c r="Q4" s="11">
         <v>56.792209999999997</v>
       </c>
-      <c r="R4" s="12">
-        <v>23.473849999999999</v>
+      <c r="R4" s="11">
+        <v>23.523230000000002</v>
       </c>
       <c r="S4" s="4">
-        <v>62.65014</v>
+        <v>62.792169999999999</v>
       </c>
       <c r="T4" s="4">
-        <v>53.9878</v>
+        <v>54.151229999999998</v>
       </c>
       <c r="U4" s="4">
-        <v>74.623500000000007</v>
+        <v>74.714370000000002</v>
       </c>
       <c r="V4" s="5">
         <v>26.793009999999999</v>
@@ -758,29 +770,29 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="1">
-        <v>50.803220000000003</v>
-      </c>
-      <c r="F5" s="6">
-        <v>46.065570000000001</v>
+      <c r="E5" s="13">
+        <v>51.004019999999997</v>
+      </c>
+      <c r="F5" s="13">
+        <v>46.15437</v>
       </c>
       <c r="G5" s="3">
-        <v>61.382109999999997</v>
+        <v>61.50714</v>
       </c>
       <c r="H5" s="3">
         <v>82.967029999999994</v>
       </c>
       <c r="I5" s="3">
-        <v>48.709679999999999</v>
+        <v>48.867310000000003</v>
       </c>
       <c r="J5" s="4">
-        <v>55.71031</v>
+        <v>56.111109999999996</v>
       </c>
       <c r="K5" s="4">
-        <v>56.497169999999997</v>
+        <v>57.062150000000003</v>
       </c>
       <c r="L5" s="4">
-        <v>54.945059999999998</v>
+        <v>55.191249999999997</v>
       </c>
       <c r="M5" s="5">
         <v>2.7586210000000002</v>
@@ -791,23 +803,23 @@
       <c r="O5" s="5">
         <v>33.33334</v>
       </c>
-      <c r="P5" s="11">
-        <v>33.985970000000002</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>68.683880000000002</v>
-      </c>
-      <c r="R5" s="12">
-        <v>22.5793</v>
+      <c r="P5" s="10">
+        <v>34.022019999999998</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>68.641559999999998</v>
+      </c>
+      <c r="R5" s="11">
+        <v>22.615729999999999</v>
       </c>
       <c r="S5" s="4">
-        <v>61.862090000000002</v>
+        <v>61.977020000000003</v>
       </c>
       <c r="T5" s="4">
-        <v>53.028979999999997</v>
+        <v>53.181519999999999</v>
       </c>
       <c r="U5" s="4">
-        <v>74.226010000000002</v>
+        <v>74.258330000000001</v>
       </c>
       <c r="V5" s="5">
         <v>12.71908</v>
@@ -833,55 +845,55 @@
         <v>8</v>
       </c>
       <c r="E6" s="2">
-        <v>64.25703</v>
-      </c>
-      <c r="F6" s="6">
-        <v>41.646180000000001</v>
+        <v>64.658640000000005</v>
+      </c>
+      <c r="F6" s="13">
+        <v>41.734969999999997</v>
       </c>
       <c r="G6" s="3">
-        <v>66.129040000000003</v>
+        <v>66.666669999999996</v>
       </c>
       <c r="H6" s="3">
-        <v>67.582409999999996</v>
+        <v>68.131870000000006</v>
       </c>
       <c r="I6" s="3">
-        <v>64.736850000000004</v>
+        <v>65.263159999999999</v>
       </c>
       <c r="J6" s="4">
-        <v>62.295079999999999</v>
+        <v>62.745100000000001</v>
       </c>
       <c r="K6" s="4">
-        <v>53.672310000000003</v>
+        <v>54.237290000000002</v>
       </c>
       <c r="L6" s="4">
-        <v>74.21875</v>
+        <v>74.418599999999998</v>
       </c>
       <c r="M6" s="5">
-        <v>63.949840000000002</v>
+        <v>64.150930000000002</v>
       </c>
       <c r="N6" s="5">
         <v>73.381290000000007</v>
       </c>
       <c r="O6" s="5">
-        <v>56.666670000000003</v>
-      </c>
-      <c r="P6" s="11">
-        <v>33.58081</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>49.767240000000001</v>
-      </c>
-      <c r="R6" s="12">
-        <v>25.339369999999999</v>
+        <v>56.983240000000002</v>
+      </c>
+      <c r="P6" s="10">
+        <v>33.624270000000003</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>49.724930000000001</v>
+      </c>
+      <c r="R6" s="11">
+        <v>25.399909999999998</v>
       </c>
       <c r="S6" s="4">
-        <v>48.079740000000001</v>
+        <v>48.240200000000002</v>
       </c>
       <c r="T6" s="4">
-        <v>33.896270000000001</v>
+        <v>34.048810000000003</v>
       </c>
       <c r="U6" s="4">
-        <v>82.673400000000001</v>
+        <v>82.715720000000005</v>
       </c>
       <c r="V6" s="5">
         <v>38.778790000000001</v>
@@ -906,245 +918,361 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1">
-        <v>51.807229999999997</v>
-      </c>
-      <c r="F7" s="6">
-        <v>42.15164</v>
+      <c r="E7" s="13">
+        <v>52.208840000000002</v>
+      </c>
+      <c r="F7" s="13">
+        <v>42.233609999999999</v>
       </c>
       <c r="G7" s="3">
-        <v>60.084029999999998</v>
+        <v>60.504199999999997</v>
       </c>
       <c r="H7" s="3">
-        <v>78.571430000000007</v>
+        <v>79.12088</v>
       </c>
       <c r="I7" s="3">
-        <v>48.639449999999997</v>
+        <v>48.979590000000002</v>
       </c>
       <c r="J7" s="4">
-        <v>57.458559999999999</v>
+        <v>57.851239999999997</v>
       </c>
       <c r="K7" s="4">
-        <v>58.757060000000003</v>
+        <v>59.322040000000001</v>
       </c>
       <c r="L7" s="4">
-        <v>56.21622</v>
+        <v>56.451610000000002</v>
       </c>
       <c r="M7" s="5">
-        <v>13.924049999999999</v>
+        <v>14.012740000000001</v>
       </c>
       <c r="N7" s="5">
         <v>7.9136689999999996</v>
       </c>
       <c r="O7" s="5">
-        <v>57.894739999999999</v>
-      </c>
-      <c r="P7" s="11">
-        <v>32.585889999999999</v>
-      </c>
-      <c r="Q7" s="12">
+        <v>61.111109999999996</v>
+      </c>
+      <c r="P7" s="10">
+        <v>32.623570000000001</v>
+      </c>
+      <c r="Q7" s="11">
         <v>71.646209999999996</v>
       </c>
-      <c r="R7" s="12">
-        <v>21.08869</v>
+      <c r="R7" s="11">
+        <v>21.120259999999998</v>
       </c>
       <c r="S7" s="4">
-        <v>56.067239999999998</v>
+        <v>56.183210000000003</v>
       </c>
       <c r="T7" s="4">
-        <v>43.974719999999998</v>
+        <v>44.105469999999997</v>
       </c>
       <c r="U7" s="4">
-        <v>77.332819999999998</v>
+        <v>77.37003</v>
       </c>
       <c r="V7" s="5">
-        <v>19.67943</v>
+        <v>19.683810000000001</v>
       </c>
       <c r="W7" s="5">
         <v>14.26267</v>
       </c>
       <c r="X7" s="5">
-        <v>31.730080000000001</v>
+        <v>31.752870000000001</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="1">
-        <v>56.827309999999997</v>
-      </c>
-      <c r="F8" s="1"/>
+      <c r="C8" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="13">
+        <v>55.421680000000002</v>
+      </c>
+      <c r="F8" s="2">
+        <v>50.54645</v>
+      </c>
       <c r="G8" s="3">
-        <v>64.159289999999999</v>
+        <v>62.89593</v>
       </c>
       <c r="H8" s="3">
-        <v>79.670330000000007</v>
+        <v>76.373630000000006</v>
       </c>
       <c r="I8" s="3">
-        <v>53.703699999999998</v>
+        <v>53.461539999999999</v>
       </c>
       <c r="J8" s="4">
-        <v>61.917810000000003</v>
+        <v>61.170209999999997</v>
       </c>
       <c r="K8" s="4">
-        <v>63.841810000000002</v>
+        <v>64.97175</v>
       </c>
       <c r="L8" s="4">
-        <v>60.106380000000001</v>
+        <v>57.788939999999997</v>
       </c>
       <c r="M8" s="5">
-        <v>27.932960000000001</v>
+        <v>24.719100000000001</v>
       </c>
       <c r="N8" s="5">
-        <v>17.985610000000001</v>
+        <v>15.82734</v>
       </c>
       <c r="O8" s="5">
-        <v>62.5</v>
+        <v>56.410260000000001</v>
+      </c>
+      <c r="P8" s="10">
+        <v>34.860219999999998</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>56.199750000000002</v>
+      </c>
+      <c r="R8" s="3">
+        <v>25.266359999999999</v>
+      </c>
+      <c r="S8" s="19">
+        <v>65.741129999999998</v>
+      </c>
+      <c r="T8" s="19">
+        <v>58.302460000000004</v>
+      </c>
+      <c r="U8" s="19">
+        <v>75.355580000000003</v>
+      </c>
+      <c r="V8" s="5">
+        <v>26.793009999999999</v>
+      </c>
+      <c r="W8" s="5">
+        <v>23.26557</v>
+      </c>
+      <c r="X8" s="5">
+        <v>31.581250000000001</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B9" s="13">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1">
-        <v>53.614460000000001</v>
-      </c>
-      <c r="F9" s="1"/>
+      <c r="C9" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="13">
+        <v>52.008029999999998</v>
+      </c>
+      <c r="F9" s="13">
+        <v>48.859290000000001</v>
+      </c>
       <c r="G9" s="3">
-        <v>63.265300000000003</v>
+        <v>61.82573</v>
       </c>
       <c r="H9" s="3">
-        <v>85.164829999999995</v>
+        <v>81.868129999999994</v>
       </c>
       <c r="I9" s="3">
-        <v>50.324669999999998</v>
+        <v>49.666670000000003</v>
       </c>
       <c r="J9" s="4">
-        <v>60.555549999999997</v>
+        <v>58.536589999999997</v>
       </c>
       <c r="K9" s="4">
-        <v>61.581919999999997</v>
+        <v>61.016950000000001</v>
       </c>
       <c r="L9" s="4">
-        <v>59.562840000000001</v>
+        <v>56.25</v>
       </c>
       <c r="M9" s="5">
-        <v>4.1095889999999997</v>
+        <v>2.7586210000000002</v>
       </c>
       <c r="N9" s="5">
-        <v>2.1582729999999999</v>
+        <v>1.438849</v>
       </c>
       <c r="O9" s="5">
-        <v>42.857140000000001</v>
+        <v>33.33334</v>
+      </c>
+      <c r="P9" s="10">
+        <v>35.495629999999998</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>67.964449999999999</v>
+      </c>
+      <c r="R9" s="11">
+        <v>24.020340000000001</v>
+      </c>
+      <c r="S9" s="19">
+        <v>65.196770000000001</v>
+      </c>
+      <c r="T9" s="19">
+        <v>57.670520000000003</v>
+      </c>
+      <c r="U9" s="19">
+        <v>74.982290000000006</v>
+      </c>
+      <c r="V9" s="5">
+        <v>12.71908</v>
+      </c>
+      <c r="W9" s="5">
+        <v>8.1961919999999999</v>
+      </c>
+      <c r="X9" s="5">
+        <v>28.37989</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>9</v>
+      <c r="C10" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>8</v>
       </c>
       <c r="E10" s="2">
-        <v>65.461849999999998</v>
-      </c>
-      <c r="F10" s="1"/>
+        <v>65.863460000000003</v>
+      </c>
+      <c r="F10" s="13">
+        <v>44.030059999999999</v>
+      </c>
       <c r="G10" s="3">
-        <v>68.08511</v>
+        <v>67.403319999999994</v>
       </c>
       <c r="H10" s="3">
-        <v>70.329669999999993</v>
+        <v>67.032970000000006</v>
       </c>
       <c r="I10" s="3">
-        <v>65.979380000000006</v>
+        <v>67.777780000000007</v>
       </c>
       <c r="J10" s="4">
-        <v>62.337670000000003</v>
+        <v>65.822779999999995</v>
       </c>
       <c r="K10" s="4">
-        <v>54.237290000000002</v>
+        <v>58.757060000000003</v>
       </c>
       <c r="L10" s="4">
-        <v>73.282449999999997</v>
+        <v>74.820139999999995</v>
       </c>
       <c r="M10" s="5">
-        <v>65.384609999999995</v>
+        <v>64.150930000000002</v>
       </c>
       <c r="N10" s="5">
         <v>73.381290000000007</v>
       </c>
       <c r="O10" s="5">
-        <v>58.959539999999997</v>
+        <v>56.983240000000002</v>
+      </c>
+      <c r="P10" s="10">
+        <v>35.438429999999997</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>49.513330000000003</v>
+      </c>
+      <c r="R10" s="3">
+        <v>27.594339999999999</v>
+      </c>
+      <c r="S10" s="19">
+        <v>51.956220000000002</v>
+      </c>
+      <c r="T10" s="19">
+        <v>37.764220000000002</v>
+      </c>
+      <c r="U10" s="19">
+        <v>83.237269999999995</v>
+      </c>
+      <c r="V10" s="5">
+        <v>38.778790000000001</v>
+      </c>
+      <c r="W10" s="5">
+        <v>58.405940000000001</v>
+      </c>
+      <c r="X10" s="5">
+        <v>29.025010000000002</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B11" s="13">
         <v>0</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="1">
-        <v>53.012050000000002</v>
-      </c>
-      <c r="F11" s="1"/>
+      <c r="C11" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="13">
+        <v>52.610439999999997</v>
+      </c>
+      <c r="F11" s="13">
+        <v>44.93853</v>
+      </c>
       <c r="G11" s="3">
-        <v>61.601649999999999</v>
+        <v>60.425530000000002</v>
       </c>
       <c r="H11" s="3">
-        <v>82.417590000000004</v>
+        <v>78.021979999999999</v>
       </c>
       <c r="I11" s="3">
-        <v>49.180329999999998</v>
+        <v>49.305549999999997</v>
       </c>
       <c r="J11" s="4">
-        <v>58.988770000000002</v>
+        <v>59.078589999999998</v>
       </c>
       <c r="K11" s="4">
-        <v>59.322040000000001</v>
+        <v>61.581919999999997</v>
       </c>
       <c r="L11" s="4">
-        <v>58.659219999999998</v>
+        <v>56.770829999999997</v>
       </c>
       <c r="M11" s="5">
-        <v>11.764709999999999</v>
+        <v>14.012740000000001</v>
       </c>
       <c r="N11" s="5">
-        <v>6.4748200000000002</v>
+        <v>7.9136689999999996</v>
       </c>
       <c r="O11" s="5">
-        <v>64.285709999999995</v>
+        <v>61.111109999999996</v>
+      </c>
+      <c r="P11" s="10">
+        <v>33.98509</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>71.349980000000002</v>
+      </c>
+      <c r="R11" s="3">
+        <v>22.304539999999999</v>
+      </c>
+      <c r="S11" s="19">
+        <v>59.877580000000002</v>
+      </c>
+      <c r="T11" s="19">
+        <v>48.496400000000001</v>
+      </c>
+      <c r="U11" s="19">
+        <v>78.238709999999998</v>
+      </c>
+      <c r="V11" s="5">
+        <v>19.683810000000001</v>
+      </c>
+      <c r="W11" s="5">
+        <v>14.26267</v>
+      </c>
+      <c r="X11" s="5">
+        <v>31.752870000000001</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.35">
@@ -1155,32 +1283,32 @@
         <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="1">
-        <v>58.032130000000002</v>
+      <c r="E12" s="13">
+        <v>57.028109999999998</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="3">
-        <v>64.852609999999999</v>
+        <v>64.301550000000006</v>
       </c>
       <c r="H12" s="3">
-        <v>78.571430000000007</v>
+        <v>79.670330000000007</v>
       </c>
       <c r="I12" s="3">
-        <v>55.212359999999997</v>
+        <v>53.903350000000003</v>
       </c>
       <c r="J12" s="4">
-        <v>64.361699999999999</v>
+        <v>62.295090000000002</v>
       </c>
       <c r="K12" s="4">
-        <v>68.361580000000004</v>
+        <v>64.406779999999998</v>
       </c>
       <c r="L12" s="4">
-        <v>60.804020000000001</v>
+        <v>60.317459999999997</v>
       </c>
       <c r="M12" s="5">
         <v>27.932960000000001</v>
@@ -1200,32 +1328,32 @@
         <v>0</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="1">
-        <v>54.618470000000002</v>
+      <c r="E13" s="13">
+        <v>53.815260000000002</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3">
-        <v>63.900410000000001</v>
+        <v>63.394680000000001</v>
       </c>
       <c r="H13" s="3">
-        <v>84.615390000000005</v>
+        <v>85.164829999999995</v>
       </c>
       <c r="I13" s="3">
-        <v>51.333329999999997</v>
+        <v>50.488599999999998</v>
       </c>
       <c r="J13" s="4">
-        <v>62.5</v>
+        <v>60.94182</v>
       </c>
       <c r="K13" s="4">
-        <v>64.97175</v>
+        <v>62.146889999999999</v>
       </c>
       <c r="L13" s="4">
-        <v>60.209420000000001</v>
+        <v>59.782609999999998</v>
       </c>
       <c r="M13" s="5">
         <v>4.1095889999999997</v>
@@ -1245,41 +1373,41 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>66.867469999999997</v>
+        <v>65.461849999999998</v>
       </c>
       <c r="F14" s="1"/>
       <c r="G14" s="3">
-        <v>69.209810000000004</v>
+        <v>67.914429999999996</v>
       </c>
       <c r="H14" s="3">
         <v>69.78022</v>
       </c>
       <c r="I14" s="3">
-        <v>68.648650000000004</v>
+        <v>66.145830000000004</v>
       </c>
       <c r="J14" s="4">
-        <v>65.615139999999997</v>
+        <v>62.783169999999998</v>
       </c>
       <c r="K14" s="4">
-        <v>58.757060000000003</v>
+        <v>54.802259999999997</v>
       </c>
       <c r="L14" s="4">
-        <v>74.285709999999995</v>
+        <v>73.484849999999994</v>
       </c>
       <c r="M14" s="5">
-        <v>65.384609999999995</v>
+        <v>65.175719999999998</v>
       </c>
       <c r="N14" s="5">
         <v>73.381290000000007</v>
       </c>
       <c r="O14" s="5">
-        <v>58.959539999999997</v>
+        <v>58.620690000000003</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.35">
@@ -1290,41 +1418,401 @@
         <v>0</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15" s="1">
-        <v>53.815260000000002</v>
+      <c r="E15" s="13">
+        <v>53.012050000000002</v>
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="3">
-        <v>61.795409999999997</v>
+        <v>61.443289999999998</v>
       </c>
       <c r="H15" s="3">
-        <v>81.318680000000001</v>
+        <v>81.868129999999994</v>
       </c>
       <c r="I15" s="3">
-        <v>49.831650000000003</v>
+        <v>49.17492</v>
       </c>
       <c r="J15" s="4">
-        <v>60.989019999999996</v>
+        <v>59.383749999999999</v>
       </c>
       <c r="K15" s="4">
-        <v>62.711860000000001</v>
+        <v>59.887</v>
       </c>
       <c r="L15" s="4">
-        <v>59.358289999999997</v>
+        <v>58.888890000000004</v>
       </c>
       <c r="M15" s="5">
-        <v>11.764709999999999</v>
+        <v>11.68831</v>
       </c>
       <c r="N15" s="5">
         <v>6.4748200000000002</v>
       </c>
       <c r="O15" s="5">
-        <v>64.285709999999995</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="13">
+        <v>58.032130000000002</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="3">
+        <v>64.852609999999999</v>
+      </c>
+      <c r="H16" s="3">
+        <v>78.571430000000007</v>
+      </c>
+      <c r="I16" s="3">
+        <v>55.212359999999997</v>
+      </c>
+      <c r="J16" s="4">
+        <v>64.361699999999999</v>
+      </c>
+      <c r="K16" s="4">
+        <v>68.361580000000004</v>
+      </c>
+      <c r="L16" s="4">
+        <v>60.804020000000001</v>
+      </c>
+      <c r="M16" s="5">
+        <v>27.932960000000001</v>
+      </c>
+      <c r="N16" s="5">
+        <v>17.985610000000001</v>
+      </c>
+      <c r="O16" s="5">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" s="13">
+        <v>54.618470000000002</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="3">
+        <v>63.900410000000001</v>
+      </c>
+      <c r="H17" s="3">
+        <v>84.615390000000005</v>
+      </c>
+      <c r="I17" s="3">
+        <v>51.333329999999997</v>
+      </c>
+      <c r="J17" s="4">
+        <v>62.5</v>
+      </c>
+      <c r="K17" s="4">
+        <v>64.97175</v>
+      </c>
+      <c r="L17" s="4">
+        <v>60.209420000000001</v>
+      </c>
+      <c r="M17" s="5">
+        <v>4.1095889999999997</v>
+      </c>
+      <c r="N17" s="5">
+        <v>2.1582729999999999</v>
+      </c>
+      <c r="O17" s="5">
+        <v>42.857140000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="2">
+        <v>66.666669999999996</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="3">
+        <v>68.852459999999994</v>
+      </c>
+      <c r="H18" s="3">
+        <v>69.230770000000007</v>
+      </c>
+      <c r="I18" s="3">
+        <v>68.478260000000006</v>
+      </c>
+      <c r="J18" s="4">
+        <v>65.615139999999997</v>
+      </c>
+      <c r="K18" s="4">
+        <v>58.757060000000003</v>
+      </c>
+      <c r="L18" s="4">
+        <v>74.285709999999995</v>
+      </c>
+      <c r="M18" s="5">
+        <v>65.175719999999998</v>
+      </c>
+      <c r="N18" s="5">
+        <v>73.381290000000007</v>
+      </c>
+      <c r="O18" s="5">
+        <v>58.620690000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="13">
+        <v>53.614460000000001</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="3">
+        <v>61.506279999999997</v>
+      </c>
+      <c r="H19" s="3">
+        <v>80.769229999999993</v>
+      </c>
+      <c r="I19" s="3">
+        <v>49.66216</v>
+      </c>
+      <c r="J19" s="4">
+        <v>60.989019999999996</v>
+      </c>
+      <c r="K19" s="4">
+        <v>62.711860000000001</v>
+      </c>
+      <c r="L19" s="4">
+        <v>59.358289999999997</v>
+      </c>
+      <c r="M19" s="5">
+        <v>11.68831</v>
+      </c>
+      <c r="N19" s="5">
+        <v>6.4748200000000002</v>
+      </c>
+      <c r="O19" s="5">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A20" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" s="13">
+        <v>58.032130000000002</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="G20" s="3">
+        <v>64.530889999999999</v>
+      </c>
+      <c r="H20" s="3">
+        <v>77.472530000000006</v>
+      </c>
+      <c r="I20" s="3">
+        <v>55.294119999999999</v>
+      </c>
+      <c r="J20" s="19">
+        <v>64.736850000000004</v>
+      </c>
+      <c r="K20" s="19">
+        <v>69.491519999999994</v>
+      </c>
+      <c r="L20" s="19">
+        <v>60.59113</v>
+      </c>
+      <c r="M20" s="5">
+        <v>27.932960000000001</v>
+      </c>
+      <c r="N20" s="5">
+        <v>17.985610000000001</v>
+      </c>
+      <c r="O20" s="5">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A21" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="13">
+        <v>0</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="13">
+        <v>54.21687</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="G21" s="3">
+        <v>63.025210000000001</v>
+      </c>
+      <c r="H21" s="3">
+        <v>82.417590000000004</v>
+      </c>
+      <c r="I21" s="3">
+        <v>51.020409999999998</v>
+      </c>
+      <c r="J21" s="19">
+        <v>62.566839999999999</v>
+      </c>
+      <c r="K21" s="19">
+        <v>66.101690000000005</v>
+      </c>
+      <c r="L21" s="19">
+        <v>59.390860000000004</v>
+      </c>
+      <c r="M21" s="5">
+        <v>4.1095889999999997</v>
+      </c>
+      <c r="N21" s="5">
+        <v>2.1582729999999999</v>
+      </c>
+      <c r="O21" s="5">
+        <v>42.857140000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" s="2">
+        <v>66.265060000000005</v>
+      </c>
+      <c r="F22" s="13"/>
+      <c r="G22" s="3">
+        <v>68.306010000000001</v>
+      </c>
+      <c r="H22" s="3">
+        <v>68.681319999999999</v>
+      </c>
+      <c r="I22" s="3">
+        <v>67.934780000000003</v>
+      </c>
+      <c r="J22" s="19">
+        <v>64.984219999999993</v>
+      </c>
+      <c r="K22" s="19">
+        <v>58.19209</v>
+      </c>
+      <c r="L22" s="19">
+        <v>73.571430000000007</v>
+      </c>
+      <c r="M22" s="5">
+        <v>65.175719999999998</v>
+      </c>
+      <c r="N22" s="5">
+        <v>73.381290000000007</v>
+      </c>
+      <c r="O22" s="5">
+        <v>58.620690000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A23" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="13">
+        <v>0</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" s="13">
+        <v>53.614460000000001</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="3">
+        <v>61.506279999999997</v>
+      </c>
+      <c r="H23" s="3">
+        <v>80.769229999999993</v>
+      </c>
+      <c r="I23" s="3">
+        <v>49.66216</v>
+      </c>
+      <c r="J23" s="19">
+        <v>60.989019999999996</v>
+      </c>
+      <c r="K23" s="19">
+        <v>62.711860000000001</v>
+      </c>
+      <c r="L23" s="19">
+        <v>59.358289999999997</v>
+      </c>
+      <c r="M23" s="5">
+        <v>11.68831</v>
+      </c>
+      <c r="N23" s="5">
+        <v>6.4748200000000002</v>
+      </c>
+      <c r="O23" s="5">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/MicroSent/results.xlsx
+++ b/MicroSent/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files (x86)\Eigene Dokumente\Visual Studio\Projekte\Microsent\MicroSent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83245048-3FA1-4CEE-91D6-B92DF0703F87}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B9E48-4DD0-440E-B368-E4162602651B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1770" yWindow="3290" windowWidth="21390" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="4730" windowWidth="21390" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -228,6 +228,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,9 +247,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -537,7 +540,7 @@
   <dimension ref="A1:X23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -554,60 +557,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-      <c r="O1" s="17"/>
-      <c r="P1" s="17" t="s">
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
+      <c r="N1" s="19"/>
+      <c r="O1" s="19"/>
+      <c r="P1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="Q1" s="17"/>
-      <c r="R1" s="17"/>
-      <c r="S1" s="17"/>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
-      <c r="W1" s="17"/>
-      <c r="X1" s="17"/>
+      <c r="Q1" s="19"/>
+      <c r="R1" s="19"/>
+      <c r="S1" s="19"/>
+      <c r="T1" s="19"/>
+      <c r="U1" s="19"/>
+      <c r="V1" s="19"/>
+      <c r="W1" s="19"/>
+      <c r="X1" s="19"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15" t="s">
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="16" t="s">
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="N2" s="16"/>
-      <c r="O2" s="16"/>
-      <c r="P2" s="18" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="15" t="s">
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16"/>
+      <c r="S2" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="16" t="s">
+      <c r="T2" s="17"/>
+      <c r="U2" s="17"/>
+      <c r="V2" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
@@ -696,65 +699,65 @@
       <c r="D4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="13">
-        <v>54.016069999999999</v>
+      <c r="E4" s="14">
+        <v>58.032130000000002</v>
       </c>
       <c r="F4" s="2">
-        <v>48.039619999999999</v>
+        <v>52.547809999999998</v>
       </c>
       <c r="G4" s="3">
-        <v>62.08426</v>
+        <v>62.884160000000001</v>
       </c>
       <c r="H4" s="3">
-        <v>76.923079999999999</v>
+        <v>73.076920000000001</v>
       </c>
       <c r="I4" s="3">
-        <v>52.044609999999999</v>
+        <v>55.186729999999997</v>
       </c>
       <c r="J4" s="4">
-        <v>58.310630000000003</v>
+        <v>63.239069999999998</v>
       </c>
       <c r="K4" s="4">
-        <v>60.451979999999999</v>
+        <v>69.491519999999994</v>
       </c>
       <c r="L4" s="4">
-        <v>56.31579</v>
+        <v>58.01887</v>
       </c>
       <c r="M4" s="5">
-        <v>24.719100000000001</v>
+        <v>35.86956</v>
       </c>
       <c r="N4" s="5">
-        <v>15.82734</v>
+        <v>23.741009999999999</v>
       </c>
       <c r="O4" s="5">
-        <v>56.410260000000001</v>
+        <v>73.333340000000007</v>
       </c>
       <c r="P4" s="10">
-        <v>33.267229999999998</v>
+        <v>39.763979999999997</v>
       </c>
       <c r="Q4" s="11">
-        <v>56.792209999999997</v>
+        <v>65.594579999999993</v>
       </c>
       <c r="R4" s="11">
-        <v>23.523230000000002</v>
+        <v>28.52936</v>
       </c>
       <c r="S4" s="4">
-        <v>62.792169999999999</v>
+        <v>66.525279999999995</v>
       </c>
       <c r="T4" s="4">
-        <v>54.151229999999998</v>
+        <v>59.806060000000002</v>
       </c>
       <c r="U4" s="4">
-        <v>74.714370000000002</v>
+        <v>74.94538</v>
       </c>
       <c r="V4" s="5">
-        <v>26.793009999999999</v>
+        <v>26.254519999999999</v>
       </c>
       <c r="W4" s="5">
-        <v>23.26557</v>
+        <v>21.103580000000001</v>
       </c>
       <c r="X4" s="5">
-        <v>31.581250000000001</v>
+        <v>34.731810000000003</v>
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
@@ -770,65 +773,65 @@
       <c r="D5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="13">
-        <v>51.004019999999997</v>
-      </c>
-      <c r="F5" s="13">
-        <v>46.15437</v>
+      <c r="E5" s="14">
+        <v>53.614460000000001</v>
+      </c>
+      <c r="F5" s="14">
+        <v>50.184429999999999</v>
       </c>
       <c r="G5" s="3">
-        <v>61.50714</v>
+        <v>61.505369999999999</v>
       </c>
       <c r="H5" s="3">
-        <v>82.967029999999994</v>
+        <v>78.571430000000007</v>
       </c>
       <c r="I5" s="3">
-        <v>48.867310000000003</v>
+        <v>50.530029999999996</v>
       </c>
       <c r="J5" s="4">
-        <v>56.111109999999996</v>
+        <v>61.658029999999997</v>
       </c>
       <c r="K5" s="4">
-        <v>57.062150000000003</v>
+        <v>67.231639999999999</v>
       </c>
       <c r="L5" s="4">
-        <v>55.191249999999997</v>
+        <v>56.937800000000003</v>
       </c>
       <c r="M5" s="5">
-        <v>2.7586210000000002</v>
+        <v>6.8965519999999998</v>
       </c>
       <c r="N5" s="5">
-        <v>1.438849</v>
+        <v>3.5971220000000002</v>
       </c>
       <c r="O5" s="5">
-        <v>33.33334</v>
+        <v>83.333330000000004</v>
       </c>
       <c r="P5" s="10">
-        <v>34.022019999999998</v>
+        <v>38.895609999999998</v>
       </c>
       <c r="Q5" s="11">
-        <v>68.641559999999998</v>
+        <v>74.820139999999995</v>
       </c>
       <c r="R5" s="11">
-        <v>22.615729999999999</v>
+        <v>26.27824</v>
       </c>
       <c r="S5" s="4">
-        <v>61.977020000000003</v>
+        <v>65.497150000000005</v>
       </c>
       <c r="T5" s="4">
-        <v>53.181519999999999</v>
+        <v>58.171709999999997</v>
       </c>
       <c r="U5" s="4">
-        <v>74.258330000000001</v>
+        <v>74.933329999999998</v>
       </c>
       <c r="V5" s="5">
-        <v>12.71908</v>
+        <v>12.352029999999999</v>
       </c>
       <c r="W5" s="5">
-        <v>8.1961919999999999</v>
+        <v>7.744434</v>
       </c>
       <c r="X5" s="5">
-        <v>28.37989</v>
+        <v>30.495550000000001</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
@@ -992,65 +995,65 @@
       <c r="D8" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="13">
-        <v>55.421680000000002</v>
+      <c r="E8" s="14">
+        <v>60.04016</v>
       </c>
       <c r="F8" s="2">
-        <v>50.54645</v>
+        <v>55.696719999999999</v>
       </c>
       <c r="G8" s="3">
-        <v>62.89593</v>
+        <v>64.390240000000006</v>
       </c>
       <c r="H8" s="3">
-        <v>76.373630000000006</v>
+        <v>72.527469999999994</v>
       </c>
       <c r="I8" s="3">
-        <v>53.461539999999999</v>
+        <v>57.894739999999999</v>
       </c>
       <c r="J8" s="4">
-        <v>61.170209999999997</v>
+        <v>66.666659999999993</v>
       </c>
       <c r="K8" s="4">
-        <v>64.97175</v>
+        <v>75.706209999999999</v>
       </c>
       <c r="L8" s="4">
-        <v>57.788939999999997</v>
+        <v>59.555549999999997</v>
       </c>
       <c r="M8" s="5">
-        <v>24.719100000000001</v>
+        <v>35.86956</v>
       </c>
       <c r="N8" s="5">
-        <v>15.82734</v>
+        <v>23.741009999999999</v>
       </c>
       <c r="O8" s="5">
-        <v>56.410260000000001</v>
+        <v>73.333340000000007</v>
       </c>
       <c r="P8" s="10">
-        <v>34.860219999999998</v>
+        <v>42.147500000000001</v>
       </c>
       <c r="Q8" s="3">
-        <v>56.199750000000002</v>
+        <v>64.451970000000003</v>
       </c>
       <c r="R8" s="3">
-        <v>25.266359999999999</v>
-      </c>
-      <c r="S8" s="19">
-        <v>65.741129999999998</v>
-      </c>
-      <c r="T8" s="19">
-        <v>58.302460000000004</v>
-      </c>
-      <c r="U8" s="19">
-        <v>75.355580000000003</v>
+        <v>31.311679999999999</v>
+      </c>
+      <c r="S8" s="15">
+        <v>70.025189999999995</v>
+      </c>
+      <c r="T8" s="15">
+        <v>65.12312</v>
+      </c>
+      <c r="U8" s="15">
+        <v>75.72533</v>
       </c>
       <c r="V8" s="5">
-        <v>26.793009999999999</v>
+        <v>26.254519999999999</v>
       </c>
       <c r="W8" s="5">
-        <v>23.26557</v>
+        <v>21.103580000000001</v>
       </c>
       <c r="X8" s="5">
-        <v>31.581250000000001</v>
+        <v>34.731810000000003</v>
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.35">
@@ -1066,65 +1069,65 @@
       <c r="D9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="13">
-        <v>52.008029999999998</v>
-      </c>
-      <c r="F9" s="13">
-        <v>48.859290000000001</v>
+      <c r="E9" s="14">
+        <v>55.421680000000002</v>
+      </c>
+      <c r="F9" s="14">
+        <v>53.681690000000003</v>
       </c>
       <c r="G9" s="3">
-        <v>61.82573</v>
+        <v>62.527720000000002</v>
       </c>
       <c r="H9" s="3">
-        <v>81.868129999999994</v>
+        <v>77.472530000000006</v>
       </c>
       <c r="I9" s="3">
-        <v>49.666670000000003</v>
+        <v>52.416359999999997</v>
       </c>
       <c r="J9" s="4">
-        <v>58.536589999999997</v>
+        <v>65</v>
       </c>
       <c r="K9" s="4">
-        <v>61.016950000000001</v>
+        <v>73.446330000000003</v>
       </c>
       <c r="L9" s="4">
-        <v>56.25</v>
+        <v>58.295969999999997</v>
       </c>
       <c r="M9" s="5">
-        <v>2.7586210000000002</v>
+        <v>6.8965519999999998</v>
       </c>
       <c r="N9" s="5">
-        <v>1.438849</v>
+        <v>3.5971220000000002</v>
       </c>
       <c r="O9" s="5">
-        <v>33.33334</v>
+        <v>83.333330000000004</v>
       </c>
       <c r="P9" s="10">
-        <v>35.495629999999998</v>
+        <v>41.105589999999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>67.964449999999999</v>
+        <v>73.635210000000001</v>
       </c>
       <c r="R9" s="11">
-        <v>24.020340000000001</v>
-      </c>
-      <c r="S9" s="19">
-        <v>65.196770000000001</v>
-      </c>
-      <c r="T9" s="19">
-        <v>57.670520000000003</v>
-      </c>
-      <c r="U9" s="19">
-        <v>74.982290000000006</v>
+        <v>28.510570000000001</v>
+      </c>
+      <c r="S9" s="15">
+        <v>69.458879999999994</v>
+      </c>
+      <c r="T9" s="15">
+        <v>64.055340000000001</v>
+      </c>
+      <c r="U9" s="15">
+        <v>75.858059999999995</v>
       </c>
       <c r="V9" s="5">
-        <v>12.71908</v>
+        <v>12.352029999999999</v>
       </c>
       <c r="W9" s="5">
-        <v>8.1961919999999999</v>
+        <v>7.744434</v>
       </c>
       <c r="X9" s="5">
-        <v>28.37989</v>
+        <v>30.495550000000001</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.35">
@@ -1182,13 +1185,13 @@
       <c r="R10" s="3">
         <v>27.594339999999999</v>
       </c>
-      <c r="S10" s="19">
+      <c r="S10" s="15">
         <v>51.956220000000002</v>
       </c>
-      <c r="T10" s="19">
+      <c r="T10" s="15">
         <v>37.764220000000002</v>
       </c>
-      <c r="U10" s="19">
+      <c r="U10" s="15">
         <v>83.237269999999995</v>
       </c>
       <c r="V10" s="5">
@@ -1256,13 +1259,13 @@
       <c r="R11" s="3">
         <v>22.304539999999999</v>
       </c>
-      <c r="S11" s="19">
+      <c r="S11" s="15">
         <v>59.877580000000002</v>
       </c>
-      <c r="T11" s="19">
+      <c r="T11" s="15">
         <v>48.496400000000001</v>
       </c>
-      <c r="U11" s="19">
+      <c r="U11" s="15">
         <v>78.238709999999998</v>
       </c>
       <c r="V11" s="5">
@@ -1288,36 +1291,36 @@
       <c r="D12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="13">
-        <v>57.028109999999998</v>
+      <c r="E12" s="14">
+        <v>58.232930000000003</v>
       </c>
       <c r="F12" s="1"/>
       <c r="G12" s="3">
-        <v>64.301550000000006</v>
+        <v>64.133020000000002</v>
       </c>
       <c r="H12" s="3">
-        <v>79.670330000000007</v>
+        <v>74.175820000000002</v>
       </c>
       <c r="I12" s="3">
-        <v>53.903350000000003</v>
+        <v>56.48536</v>
       </c>
       <c r="J12" s="4">
-        <v>62.295090000000002</v>
+        <v>62.886589999999998</v>
       </c>
       <c r="K12" s="4">
-        <v>64.406779999999998</v>
+        <v>68.926550000000006</v>
       </c>
       <c r="L12" s="4">
-        <v>60.317459999999997</v>
+        <v>57.819899999999997</v>
       </c>
       <c r="M12" s="5">
-        <v>27.932960000000001</v>
+        <v>35.294119999999999</v>
       </c>
       <c r="N12" s="5">
-        <v>17.985610000000001</v>
+        <v>23.741009999999999</v>
       </c>
       <c r="O12" s="5">
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.35">
@@ -1333,36 +1336,36 @@
       <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="13">
-        <v>53.815260000000002</v>
+      <c r="E13" s="14">
+        <v>53.012050000000002</v>
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="3">
-        <v>63.394680000000001</v>
+        <v>61.637929999999997</v>
       </c>
       <c r="H13" s="3">
-        <v>85.164829999999995</v>
+        <v>78.571430000000007</v>
       </c>
       <c r="I13" s="3">
-        <v>50.488599999999998</v>
+        <v>50.709220000000002</v>
       </c>
       <c r="J13" s="4">
-        <v>60.94182</v>
+        <v>60.103630000000003</v>
       </c>
       <c r="K13" s="4">
-        <v>62.146889999999999</v>
+        <v>65.536730000000006</v>
       </c>
       <c r="L13" s="4">
-        <v>59.782609999999998</v>
+        <v>55.502389999999998</v>
       </c>
       <c r="M13" s="5">
-        <v>4.1095889999999997</v>
+        <v>6.8493149999999998</v>
       </c>
       <c r="N13" s="5">
-        <v>2.1582729999999999</v>
+        <v>3.5971220000000002</v>
       </c>
       <c r="O13" s="5">
-        <v>42.857140000000001</v>
+        <v>71.428569999999993</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.35">
@@ -1468,36 +1471,36 @@
       <c r="D16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E16" s="13">
-        <v>58.032130000000002</v>
+      <c r="E16" s="14">
+        <v>59.036140000000003</v>
       </c>
       <c r="F16" s="1"/>
       <c r="G16" s="3">
-        <v>64.852609999999999</v>
+        <v>64.903850000000006</v>
       </c>
       <c r="H16" s="3">
-        <v>78.571430000000007</v>
+        <v>74.175820000000002</v>
       </c>
       <c r="I16" s="3">
-        <v>55.212359999999997</v>
+        <v>57.692309999999999</v>
       </c>
       <c r="J16" s="4">
-        <v>64.361699999999999</v>
+        <v>64.122140000000002</v>
       </c>
       <c r="K16" s="4">
-        <v>68.361580000000004</v>
+        <v>71.186440000000005</v>
       </c>
       <c r="L16" s="4">
-        <v>60.804020000000001</v>
+        <v>58.333329999999997</v>
       </c>
       <c r="M16" s="5">
-        <v>27.932960000000001</v>
+        <v>35.294119999999999</v>
       </c>
       <c r="N16" s="5">
-        <v>17.985610000000001</v>
+        <v>23.741009999999999</v>
       </c>
       <c r="O16" s="5">
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.35">
@@ -1513,36 +1516,36 @@
       <c r="D17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="13">
-        <v>54.618470000000002</v>
+      <c r="E17" s="14">
+        <v>53.413649999999997</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="3">
-        <v>63.900410000000001</v>
+        <v>62.039050000000003</v>
       </c>
       <c r="H17" s="3">
-        <v>84.615390000000005</v>
+        <v>78.571430000000007</v>
       </c>
       <c r="I17" s="3">
-        <v>51.333329999999997</v>
+        <v>51.254480000000001</v>
       </c>
       <c r="J17" s="4">
-        <v>62.5</v>
+        <v>60.668379999999999</v>
       </c>
       <c r="K17" s="4">
-        <v>64.97175</v>
+        <v>66.666669999999996</v>
       </c>
       <c r="L17" s="4">
-        <v>60.209420000000001</v>
+        <v>55.660380000000004</v>
       </c>
       <c r="M17" s="5">
-        <v>4.1095889999999997</v>
+        <v>6.8493149999999998</v>
       </c>
       <c r="N17" s="5">
-        <v>2.1582729999999999</v>
+        <v>3.5971220000000002</v>
       </c>
       <c r="O17" s="5">
-        <v>42.857140000000001</v>
+        <v>71.428569999999993</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.35">
@@ -1648,36 +1651,36 @@
       <c r="D20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E20" s="13">
-        <v>58.032130000000002</v>
+      <c r="E20" s="14">
+        <v>59.23695</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="3">
-        <v>64.530889999999999</v>
+        <v>64.54768</v>
       </c>
       <c r="H20" s="3">
-        <v>77.472530000000006</v>
+        <v>72.527469999999994</v>
       </c>
       <c r="I20" s="3">
-        <v>55.294119999999999</v>
-      </c>
-      <c r="J20" s="19">
-        <v>64.736850000000004</v>
-      </c>
-      <c r="K20" s="19">
-        <v>69.491519999999994</v>
-      </c>
-      <c r="L20" s="19">
-        <v>60.59113</v>
+        <v>58.14978</v>
+      </c>
+      <c r="J20" s="15">
+        <v>65</v>
+      </c>
+      <c r="K20" s="15">
+        <v>73.446330000000003</v>
+      </c>
+      <c r="L20" s="15">
+        <v>58.295969999999997</v>
       </c>
       <c r="M20" s="5">
-        <v>27.932960000000001</v>
+        <v>35.294119999999999</v>
       </c>
       <c r="N20" s="5">
-        <v>17.985610000000001</v>
+        <v>23.741009999999999</v>
       </c>
       <c r="O20" s="5">
-        <v>62.5</v>
+        <v>68.75</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.35">
@@ -1693,36 +1696,36 @@
       <c r="D21" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="E21" s="13">
-        <v>54.21687</v>
+      <c r="E21" s="14">
+        <v>53.614460000000001</v>
       </c>
       <c r="F21" s="13"/>
       <c r="G21" s="3">
-        <v>63.025210000000001</v>
+        <v>61.504429999999999</v>
       </c>
       <c r="H21" s="3">
-        <v>82.417590000000004</v>
+        <v>76.373630000000006</v>
       </c>
       <c r="I21" s="3">
-        <v>51.020409999999998</v>
-      </c>
-      <c r="J21" s="19">
-        <v>62.566839999999999</v>
-      </c>
-      <c r="K21" s="19">
-        <v>66.101690000000005</v>
-      </c>
-      <c r="L21" s="19">
-        <v>59.390860000000004</v>
+        <v>51.481479999999998</v>
+      </c>
+      <c r="J21" s="15">
+        <v>61.809049999999999</v>
+      </c>
+      <c r="K21" s="15">
+        <v>69.491519999999994</v>
+      </c>
+      <c r="L21" s="15">
+        <v>55.656109999999998</v>
       </c>
       <c r="M21" s="5">
-        <v>4.1095889999999997</v>
+        <v>6.8493149999999998</v>
       </c>
       <c r="N21" s="5">
-        <v>2.1582729999999999</v>
+        <v>3.5971220000000002</v>
       </c>
       <c r="O21" s="5">
-        <v>42.857140000000001</v>
+        <v>71.428569999999993</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.35">
@@ -1751,13 +1754,13 @@
       <c r="I22" s="3">
         <v>67.934780000000003</v>
       </c>
-      <c r="J22" s="19">
+      <c r="J22" s="15">
         <v>64.984219999999993</v>
       </c>
-      <c r="K22" s="19">
+      <c r="K22" s="15">
         <v>58.19209</v>
       </c>
-      <c r="L22" s="19">
+      <c r="L22" s="15">
         <v>73.571430000000007</v>
       </c>
       <c r="M22" s="5">
@@ -1796,13 +1799,13 @@
       <c r="I23" s="3">
         <v>49.66216</v>
       </c>
-      <c r="J23" s="19">
+      <c r="J23" s="15">
         <v>60.989019999999996</v>
       </c>
-      <c r="K23" s="19">
+      <c r="K23" s="15">
         <v>62.711860000000001</v>
       </c>
-      <c r="L23" s="19">
+      <c r="L23" s="15">
         <v>59.358289999999997</v>
       </c>
       <c r="M23" s="5">

--- a/MicroSent/results.xlsx
+++ b/MicroSent/results.xlsx
@@ -8,17 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Program Files (x86)\Eigene Dokumente\Visual Studio\Projekte\Microsent\MicroSent\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B9E48-4DD0-440E-B368-E4162602651B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0405D0BA-714D-45C6-BF10-20DD6421D758}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="4730" windowWidth="21390" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="13665" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -537,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X23"/>
+  <dimension ref="A1:Z23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -556,7 +564,7 @@
     <col min="14" max="15" width="8.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G1" s="19" t="s">
         <v>5</v>
       </c>
@@ -580,7 +588,7 @@
       <c r="W1" s="19"/>
       <c r="X1" s="19"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
       <c r="G2" s="16" t="s">
         <v>16</v>
       </c>
@@ -612,7 +620,7 @@
       <c r="W2" s="18"/>
       <c r="X2" s="18"/>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>0</v>
       </c>
@@ -686,7 +694,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -759,8 +767,16 @@
       <c r="X4" s="5">
         <v>34.731810000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y4">
+        <f xml:space="preserve"> (G4 + J4 + M4)/ 3</f>
+        <v>53.997596666666674</v>
+      </c>
+      <c r="Z4">
+        <f xml:space="preserve"> (P4 + S4 + V4)/ 3</f>
+        <v>44.181259999999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -833,8 +849,16 @@
       <c r="X5" s="5">
         <v>30.495550000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y23" si="0" xml:space="preserve"> (G5 + J5 + M5)/ 3</f>
+        <v>43.353317333333337</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z23" si="1" xml:space="preserve"> (P5 + S5 + V5)/ 3</f>
+        <v>38.914930000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
@@ -907,8 +931,16 @@
       <c r="X6" s="5">
         <v>29.025010000000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y6">
+        <f t="shared" si="0"/>
+        <v>64.520899999999997</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="1"/>
+        <v>40.214420000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -981,8 +1013,16 @@
       <c r="X7" s="5">
         <v>31.752870000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y7">
+        <f t="shared" si="0"/>
+        <v>44.122726666666665</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="1"/>
+        <v>36.163530000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A8" s="13" t="s">
         <v>2</v>
       </c>
@@ -1055,8 +1095,16 @@
       <c r="X8" s="5">
         <v>34.731810000000003</v>
       </c>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y8">
+        <f t="shared" si="0"/>
+        <v>55.642153333333333</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="1"/>
+        <v>46.142403333333334</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A9" s="13" t="s">
         <v>2</v>
       </c>
@@ -1129,8 +1177,16 @@
       <c r="X9" s="5">
         <v>30.495550000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y9">
+        <f t="shared" si="0"/>
+        <v>44.808090666666665</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="1"/>
+        <v>40.972166666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A10" s="13" t="s">
         <v>4</v>
       </c>
@@ -1203,8 +1259,16 @@
       <c r="X10" s="5">
         <v>29.025010000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y10">
+        <f t="shared" si="0"/>
+        <v>65.792343333333335</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="1"/>
+        <v>42.057813333333335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>4</v>
       </c>
@@ -1277,8 +1341,16 @@
       <c r="X11" s="5">
         <v>31.752870000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y11">
+        <f t="shared" si="0"/>
+        <v>44.50562</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="1"/>
+        <v>37.848826666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
         <v>2</v>
       </c>
@@ -1322,8 +1394,12 @@
       <c r="O12" s="5">
         <v>68.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y12">
+        <f t="shared" si="0"/>
+        <v>54.104576666666667</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
         <v>2</v>
       </c>
@@ -1367,8 +1443,12 @@
       <c r="O13" s="5">
         <v>71.428569999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y13">
+        <f t="shared" si="0"/>
+        <v>42.863624999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
         <v>4</v>
       </c>
@@ -1412,8 +1492,12 @@
       <c r="O14" s="5">
         <v>58.620690000000003</v>
       </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y14">
+        <f t="shared" si="0"/>
+        <v>65.291106666666664</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
         <v>4</v>
       </c>
@@ -1457,8 +1541,12 @@
       <c r="O15" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.35">
+      <c r="Y15">
+        <f t="shared" si="0"/>
+        <v>44.17178333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
@@ -1502,8 +1590,12 @@
       <c r="O16" s="5">
         <v>68.75</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Y16">
+        <f t="shared" si="0"/>
+        <v>54.77337</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>2</v>
       </c>
@@ -1547,8 +1639,12 @@
       <c r="O17" s="5">
         <v>71.428569999999993</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Y17">
+        <f t="shared" si="0"/>
+        <v>43.185581666666671</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
         <v>4</v>
       </c>
@@ -1592,8 +1688,12 @@
       <c r="O18" s="5">
         <v>58.620690000000003</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Y18">
+        <f t="shared" si="0"/>
+        <v>66.547773333333339</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>4</v>
       </c>
@@ -1637,8 +1737,12 @@
       <c r="O19" s="5">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Y19">
+        <f t="shared" si="0"/>
+        <v>44.727869999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" s="13" t="s">
         <v>2</v>
       </c>
@@ -1682,8 +1786,12 @@
       <c r="O20" s="5">
         <v>68.75</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Y20">
+        <f t="shared" si="0"/>
+        <v>54.947266666666671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" s="13" t="s">
         <v>2</v>
       </c>
@@ -1727,8 +1835,12 @@
       <c r="O21" s="5">
         <v>71.428569999999993</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Y21">
+        <f t="shared" si="0"/>
+        <v>43.387598333333329</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>4</v>
       </c>
@@ -1772,8 +1884,12 @@
       <c r="O22" s="5">
         <v>58.620690000000003</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="Y22">
+        <f t="shared" si="0"/>
+        <v>66.155316666666678</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" s="13" t="s">
         <v>4</v>
       </c>
@@ -1816,6 +1932,10 @@
       </c>
       <c r="O23" s="5">
         <v>60</v>
+      </c>
+      <c r="Y23">
+        <f t="shared" si="0"/>
+        <v>44.727869999999996</v>
       </c>
     </row>
   </sheetData>
